--- a/Data/Density static - population vary - area vary/simulation density-81m2-table.xlsx
+++ b/Data/Density static - population vary - area vary/simulation density-81m2-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/20920007_mahasiswa_itb_ac_id/Documents/#THESIS Resource/thesis-abm/Data Yg Bener/Density static - population vary - area vary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/20920007_mahasiswa_itb_ac_id/Documents/#THESIS Resource/thesis-abm/Data/Density static - population vary - area vary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5F28F4E6-C078-4956-887C-3B56DCB45207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:40009_{5F28F4E6-C078-4956-887C-3B56DCB45207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF249FC5-607C-E643-ACDA-3CC730E33D8C}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="0" windowWidth="21120" windowHeight="15600"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation density-81m2-table" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'simulation density-81m2-table'!$A$1:$AE$951</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -127,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -968,21 +981,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A918" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y252" sqref="Y252"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A916" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE168" sqref="AE168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="24" max="25" width="9.140625" style="1"/>
+    <col min="24" max="25" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1267,7 +1280,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1362,7 +1375,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1457,7 +1470,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1552,7 +1565,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1647,7 +1660,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1742,7 +1755,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1837,7 +1850,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1932,7 +1945,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2027,7 +2040,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2122,7 +2135,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2217,7 +2230,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2312,7 +2325,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2407,7 +2420,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2502,7 +2515,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2597,7 +2610,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2692,7 +2705,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2787,7 +2800,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2882,7 +2895,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2977,7 +2990,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3072,7 +3085,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3167,7 +3180,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3262,7 +3275,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3357,7 +3370,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3452,7 +3465,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3547,7 +3560,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3642,7 +3655,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3737,7 +3750,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3832,7 +3845,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3927,7 +3940,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4022,7 +4035,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4117,7 +4130,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4212,7 +4225,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4307,7 +4320,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4402,7 +4415,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4497,7 +4510,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4592,7 +4605,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4687,7 +4700,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4782,7 +4795,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4877,7 +4890,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4972,7 +4985,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5067,7 +5080,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5162,7 +5175,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5257,7 +5270,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5352,7 +5365,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5447,7 +5460,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5542,7 +5555,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5637,7 +5650,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5732,7 +5745,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5827,7 +5840,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5922,7 +5935,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6017,7 +6030,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6112,7 +6125,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6207,7 +6220,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6302,7 +6315,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6397,7 +6410,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6492,7 +6505,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6587,7 +6600,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6682,7 +6695,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6777,7 +6790,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6872,7 +6885,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6967,7 +6980,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7062,7 +7075,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7157,7 +7170,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7252,7 +7265,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7347,7 +7360,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7442,7 +7455,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7537,7 +7550,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7632,7 +7645,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7727,7 +7740,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7822,7 +7835,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7917,7 +7930,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8012,7 +8025,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8107,7 +8120,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8202,7 +8215,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8297,7 +8310,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8392,7 +8405,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8487,7 +8500,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8582,7 +8595,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="81" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8677,7 +8690,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="82" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8772,7 +8785,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8867,7 +8880,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="84" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8962,7 +8975,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9057,7 +9070,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9152,7 +9165,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9247,7 +9260,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="88" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9342,7 +9355,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9437,7 +9450,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="90" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9532,7 +9545,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9627,7 +9640,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9722,7 +9735,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9817,7 +9830,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="94" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9912,7 +9925,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="95" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10007,7 +10020,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="96" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10102,7 +10115,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10197,7 +10210,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10292,7 +10305,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10387,7 +10400,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10482,7 +10495,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10577,7 +10590,7 @@
         <v>0.19753086419752999</v>
       </c>
     </row>
-    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10672,7 +10685,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10767,7 +10780,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10862,7 +10875,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10957,7 +10970,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11052,7 +11065,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11147,7 +11160,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11242,7 +11255,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11337,7 +11350,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11432,7 +11445,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="111" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11527,7 +11540,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11622,7 +11635,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="113" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11717,7 +11730,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="114" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11812,7 +11825,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="115" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11907,7 +11920,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="116" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -12002,7 +12015,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -12097,7 +12110,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -12192,7 +12205,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="119" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12287,7 +12300,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="120" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12382,7 +12395,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="121" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12477,7 +12490,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="122" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -12572,7 +12585,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="123" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -12667,7 +12680,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="124" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12762,7 +12775,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="125" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12857,7 +12870,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="126" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12952,7 +12965,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="127" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13047,7 +13060,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="128" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13142,7 +13155,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -13237,7 +13250,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -13332,7 +13345,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13427,7 +13440,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13522,7 +13535,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13617,7 +13630,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13712,7 +13725,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13807,7 +13820,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13902,7 +13915,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -13997,7 +14010,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -14092,7 +14105,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -14187,7 +14200,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -14282,7 +14295,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="141" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -14377,7 +14390,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="142" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -14472,7 +14485,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="143" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -14567,7 +14580,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="144" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -14662,7 +14675,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -14757,7 +14770,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="146" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -14852,7 +14865,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="147" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -14947,7 +14960,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="148" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15042,7 +15055,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="149" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -15137,7 +15150,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="150" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -15232,7 +15245,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="151" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -15327,7 +15340,7 @@
         <v>0.296296296296296</v>
       </c>
     </row>
-    <row r="152" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -15422,7 +15435,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="153" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -15517,7 +15530,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="154" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -15612,7 +15625,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="155" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -15707,7 +15720,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="156" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -15802,7 +15815,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="157" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -15897,7 +15910,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="158" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -15992,7 +16005,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="159" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16087,7 +16100,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="160" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -16182,7 +16195,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="161" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -16277,7 +16290,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="162" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -16372,7 +16385,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="163" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -16467,7 +16480,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="164" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -16562,7 +16575,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="165" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -16657,7 +16670,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="166" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -16752,7 +16765,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="167" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -16847,7 +16860,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="168" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -16942,7 +16955,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="169" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -17037,7 +17050,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="170" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -17132,7 +17145,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="171" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -17227,7 +17240,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="172" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -17322,7 +17335,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="173" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -17417,7 +17430,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="174" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -17512,7 +17525,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="175" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -17607,7 +17620,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="176" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -17702,7 +17715,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="177" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -17797,7 +17810,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="178" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -17892,7 +17905,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="179" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -17987,7 +18000,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="180" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -18082,7 +18095,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="181" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -18177,7 +18190,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="182" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -18272,7 +18285,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="183" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -18367,7 +18380,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="184" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -18462,7 +18475,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="185" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -18557,7 +18570,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="186" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -18652,7 +18665,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="187" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -18747,7 +18760,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="188" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -18842,7 +18855,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="189" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -18937,7 +18950,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="190" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -19032,7 +19045,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="191" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -19127,7 +19140,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="192" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -19222,7 +19235,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="193" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -19317,7 +19330,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="194" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -19412,7 +19425,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="195" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -19507,7 +19520,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="196" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -19602,7 +19615,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="197" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -19697,7 +19710,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="198" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -19792,7 +19805,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="199" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -19887,7 +19900,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="200" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -19982,7 +19995,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="201" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -20077,7 +20090,7 @@
         <v>0.39506172839506098</v>
       </c>
     </row>
-    <row r="202" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -20172,7 +20185,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="203" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -20267,7 +20280,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="204" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -20362,7 +20375,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="205" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -20457,7 +20470,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="206" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -20552,7 +20565,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="207" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -20647,7 +20660,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="208" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -20742,7 +20755,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="209" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -20837,7 +20850,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="210" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -20932,7 +20945,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="211" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -21027,7 +21040,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="212" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -21122,7 +21135,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="213" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -21217,7 +21230,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="214" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -21312,7 +21325,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="215" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -21407,7 +21420,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="216" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -21502,7 +21515,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="217" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -21597,7 +21610,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="218" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -21692,7 +21705,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="219" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -21787,7 +21800,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="220" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -21882,7 +21895,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="221" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -21977,7 +21990,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="222" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -22072,7 +22085,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="223" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -22167,7 +22180,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="224" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -22262,7 +22275,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="225" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -22357,7 +22370,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="226" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -22452,7 +22465,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="227" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -22547,7 +22560,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="228" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -22642,7 +22655,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="229" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -22737,7 +22750,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="230" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -22832,7 +22845,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="231" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -22927,7 +22940,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="232" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -23022,7 +23035,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="233" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -23117,7 +23130,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="234" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -23212,7 +23225,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="235" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -23307,7 +23320,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="236" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -23402,7 +23415,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="237" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -23497,7 +23510,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="238" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -23592,7 +23605,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="239" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -23687,7 +23700,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="240" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -23782,7 +23795,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="241" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -23877,7 +23890,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="242" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -23972,7 +23985,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="243" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -24067,7 +24080,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="244" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -24162,7 +24175,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="245" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -24257,7 +24270,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="246" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -24352,7 +24365,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="247" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -24447,7 +24460,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="248" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -24542,7 +24555,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="249" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -24637,7 +24650,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="250" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -24732,7 +24745,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="251" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -24827,7 +24840,7 @@
         <v>0.50617283950617198</v>
       </c>
     </row>
-    <row r="252" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -24922,7 +24935,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="253" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -25017,7 +25030,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="254" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -25112,7 +25125,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="255" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -25207,7 +25220,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="256" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -25302,7 +25315,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="257" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -25397,7 +25410,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="258" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -25492,7 +25505,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="259" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -25587,7 +25600,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="260" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -25682,7 +25695,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="261" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -25777,7 +25790,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="262" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -25872,7 +25885,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="263" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -25967,7 +25980,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="264" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -26062,7 +26075,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="265" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -26157,7 +26170,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="266" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -26252,7 +26265,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="267" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -26347,7 +26360,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="268" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -26442,7 +26455,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="269" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -26537,7 +26550,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="270" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -26632,7 +26645,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="271" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -26727,7 +26740,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="272" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -26822,7 +26835,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="273" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -26917,7 +26930,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="274" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -27012,7 +27025,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="275" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -27107,7 +27120,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="276" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -27202,7 +27215,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="277" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -27297,7 +27310,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="278" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -27392,7 +27405,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="279" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -27487,7 +27500,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -27582,7 +27595,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="281" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -27677,7 +27690,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="282" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -27772,7 +27785,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="283" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -27867,7 +27880,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="284" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -27962,7 +27975,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="285" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -28057,7 +28070,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="286" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -28152,7 +28165,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="287" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -28247,7 +28260,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="288" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -28342,7 +28355,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="289" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -28437,7 +28450,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="290" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -28532,7 +28545,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="291" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -28627,7 +28640,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="292" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -28722,7 +28735,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="293" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -28817,7 +28830,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="294" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -28912,7 +28925,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="295" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -29007,7 +29020,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="296" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -29102,7 +29115,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="297" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -29197,7 +29210,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="298" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -29292,7 +29305,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="299" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -29387,7 +29400,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="300" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -29482,7 +29495,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="301" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -29577,7 +29590,7 @@
         <v>0.72839506172839497</v>
       </c>
     </row>
-    <row r="302" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -29672,7 +29685,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="303" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -29767,7 +29780,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="304" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -29862,7 +29875,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="305" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -29957,7 +29970,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="306" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -30052,7 +30065,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="307" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -30147,7 +30160,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="308" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -30242,7 +30255,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="309" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -30337,7 +30350,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="310" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -30432,7 +30445,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="311" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -30527,7 +30540,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="312" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -30622,7 +30635,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="313" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -30717,7 +30730,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="314" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -30812,7 +30825,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="315" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -30907,7 +30920,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="316" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -31002,7 +31015,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="317" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -31097,7 +31110,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="318" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -31192,7 +31205,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="319" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -31287,7 +31300,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="320" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -31382,7 +31395,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="321" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -31477,7 +31490,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="322" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -31572,7 +31585,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="323" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -31667,7 +31680,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="324" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -31762,7 +31775,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="325" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -31857,7 +31870,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="326" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -31952,7 +31965,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="327" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -32047,7 +32060,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="328" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -32142,7 +32155,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="329" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -32237,7 +32250,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="330" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -32332,7 +32345,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="331" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -32427,7 +32440,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="332" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -32522,7 +32535,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="333" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -32617,7 +32630,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="334" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -32712,7 +32725,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="335" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -32807,7 +32820,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="336" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -32902,7 +32915,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="337" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -32997,7 +33010,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="338" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -33092,7 +33105,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="339" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -33187,7 +33200,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="340" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -33282,7 +33295,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="341" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -33377,7 +33390,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="342" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -33472,7 +33485,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="343" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -33567,7 +33580,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="344" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -33662,7 +33675,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="345" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -33757,7 +33770,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="346" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -33852,7 +33865,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="347" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -33947,7 +33960,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="348" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -34042,7 +34055,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="349" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -34137,7 +34150,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="350" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -34232,7 +34245,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="351" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -34327,7 +34340,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="352" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -34422,7 +34435,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="353" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
@@ -34517,7 +34530,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="354" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
@@ -34612,7 +34625,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="355" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
@@ -34707,7 +34720,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="356" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
@@ -34802,7 +34815,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="357" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -34897,7 +34910,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="358" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
@@ -34992,7 +35005,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="359" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
@@ -35087,7 +35100,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="360" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
@@ -35182,7 +35195,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="361" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
@@ -35277,7 +35290,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="362" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -35372,7 +35385,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="363" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
@@ -35467,7 +35480,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="364" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
@@ -35562,7 +35575,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="365" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
@@ -35657,7 +35670,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="366" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
@@ -35752,7 +35765,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="367" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
@@ -35847,7 +35860,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="368" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
@@ -35942,7 +35955,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="369" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
@@ -36037,7 +36050,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="370" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
@@ -36132,7 +36145,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="371" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
@@ -36227,7 +36240,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="372" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
@@ -36322,7 +36335,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="373" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
@@ -36417,7 +36430,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="374" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
@@ -36512,7 +36525,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="375" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
@@ -36607,7 +36620,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="376" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
@@ -36702,7 +36715,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="377" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
@@ -36797,7 +36810,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="378" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
@@ -36892,7 +36905,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="379" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
@@ -36987,7 +37000,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="380" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
@@ -37082,7 +37095,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="381" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
@@ -37177,7 +37190,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="382" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
@@ -37272,7 +37285,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="383" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>382</v>
       </c>
@@ -37367,7 +37380,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="384" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
@@ -37462,7 +37475,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="385" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
@@ -37557,7 +37570,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="386" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
@@ -37652,7 +37665,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="387" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
@@ -37747,7 +37760,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="388" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
@@ -37842,7 +37855,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="389" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
@@ -37937,7 +37950,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="390" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
@@ -38032,7 +38045,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="391" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
@@ -38127,7 +38140,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="392" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
@@ -38222,7 +38235,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="393" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
@@ -38317,7 +38330,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="394" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
@@ -38412,7 +38425,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="395" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
@@ -38507,7 +38520,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="396" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
@@ -38602,7 +38615,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="397" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
@@ -38697,7 +38710,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="398" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
@@ -38792,7 +38805,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="399" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
@@ -38887,7 +38900,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="400" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -38982,7 +38995,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="401" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
@@ -39077,7 +39090,7 @@
         <v>0.80246913580246904</v>
       </c>
     </row>
-    <row r="402" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>401</v>
       </c>
@@ -39172,7 +39185,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="403" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>402</v>
       </c>
@@ -39267,7 +39280,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="404" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>403</v>
       </c>
@@ -39362,7 +39375,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="405" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>404</v>
       </c>
@@ -39457,7 +39470,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="406" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>405</v>
       </c>
@@ -39552,7 +39565,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="407" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>406</v>
       </c>
@@ -39647,7 +39660,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="408" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>407</v>
       </c>
@@ -39742,7 +39755,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="409" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>408</v>
       </c>
@@ -39837,7 +39850,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="410" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>409</v>
       </c>
@@ -39932,7 +39945,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="411" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>410</v>
       </c>
@@ -40027,7 +40040,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="412" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>411</v>
       </c>
@@ -40122,7 +40135,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="413" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>412</v>
       </c>
@@ -40217,7 +40230,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="414" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>413</v>
       </c>
@@ -40312,7 +40325,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="415" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>414</v>
       </c>
@@ -40407,7 +40420,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="416" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>415</v>
       </c>
@@ -40502,7 +40515,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="417" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>416</v>
       </c>
@@ -40597,7 +40610,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="418" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>417</v>
       </c>
@@ -40692,7 +40705,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="419" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>418</v>
       </c>
@@ -40787,7 +40800,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="420" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>419</v>
       </c>
@@ -40882,7 +40895,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="421" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>420</v>
       </c>
@@ -40977,7 +40990,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="422" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>421</v>
       </c>
@@ -41072,7 +41085,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="423" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>422</v>
       </c>
@@ -41167,7 +41180,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="424" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>423</v>
       </c>
@@ -41262,7 +41275,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="425" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>424</v>
       </c>
@@ -41357,7 +41370,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="426" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>425</v>
       </c>
@@ -41452,7 +41465,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="427" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>426</v>
       </c>
@@ -41547,7 +41560,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="428" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>427</v>
       </c>
@@ -41642,7 +41655,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="429" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>428</v>
       </c>
@@ -41737,7 +41750,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="430" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>429</v>
       </c>
@@ -41832,7 +41845,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="431" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>430</v>
       </c>
@@ -41927,7 +41940,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="432" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>431</v>
       </c>
@@ -42022,7 +42035,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="433" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>432</v>
       </c>
@@ -42117,7 +42130,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="434" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>433</v>
       </c>
@@ -42212,7 +42225,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="435" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>434</v>
       </c>
@@ -42307,7 +42320,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="436" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>435</v>
       </c>
@@ -42402,7 +42415,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="437" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>436</v>
       </c>
@@ -42497,7 +42510,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="438" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>437</v>
       </c>
@@ -42592,7 +42605,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="439" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>438</v>
       </c>
@@ -42687,7 +42700,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="440" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>439</v>
       </c>
@@ -42782,7 +42795,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="441" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>440</v>
       </c>
@@ -42877,7 +42890,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="442" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>441</v>
       </c>
@@ -42972,7 +42985,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="443" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>442</v>
       </c>
@@ -43067,7 +43080,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="444" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>443</v>
       </c>
@@ -43162,7 +43175,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="445" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>444</v>
       </c>
@@ -43257,7 +43270,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="446" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>445</v>
       </c>
@@ -43352,7 +43365,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="447" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>446</v>
       </c>
@@ -43447,7 +43460,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="448" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>447</v>
       </c>
@@ -43542,7 +43555,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="449" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>448</v>
       </c>
@@ -43637,7 +43650,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="450" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>449</v>
       </c>
@@ -43732,7 +43745,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="451" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>450</v>
       </c>
@@ -43827,7 +43840,7 @@
         <v>0.90123456790123402</v>
       </c>
     </row>
-    <row r="452" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>451</v>
       </c>
@@ -43922,7 +43935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>452</v>
       </c>
@@ -44017,7 +44030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>453</v>
       </c>
@@ -44112,7 +44125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>454</v>
       </c>
@@ -44207,7 +44220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>455</v>
       </c>
@@ -44302,7 +44315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>456</v>
       </c>
@@ -44397,7 +44410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>457</v>
       </c>
@@ -44492,7 +44505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>458</v>
       </c>
@@ -44587,7 +44600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>459</v>
       </c>
@@ -44682,7 +44695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>460</v>
       </c>
@@ -44777,7 +44790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>461</v>
       </c>
@@ -44872,7 +44885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>462</v>
       </c>
@@ -44967,7 +44980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>463</v>
       </c>
@@ -45062,7 +45075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>464</v>
       </c>
@@ -45157,7 +45170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>465</v>
       </c>
@@ -45252,7 +45265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>466</v>
       </c>
@@ -45347,7 +45360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>467</v>
       </c>
@@ -45442,7 +45455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>468</v>
       </c>
@@ -45537,7 +45550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>469</v>
       </c>
@@ -45632,7 +45645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>470</v>
       </c>
@@ -45727,7 +45740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>471</v>
       </c>
@@ -45822,7 +45835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>472</v>
       </c>
@@ -45917,7 +45930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>473</v>
       </c>
@@ -46012,7 +46025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>474</v>
       </c>
@@ -46107,7 +46120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>475</v>
       </c>
@@ -46202,7 +46215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>476</v>
       </c>
@@ -46297,7 +46310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>477</v>
       </c>
@@ -46392,7 +46405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>478</v>
       </c>
@@ -46487,7 +46500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>479</v>
       </c>
@@ -46582,7 +46595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>480</v>
       </c>
@@ -46677,7 +46690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>481</v>
       </c>
@@ -46772,7 +46785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>482</v>
       </c>
@@ -46867,7 +46880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>483</v>
       </c>
@@ -46962,7 +46975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>484</v>
       </c>
@@ -47057,7 +47070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>485</v>
       </c>
@@ -47152,7 +47165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>486</v>
       </c>
@@ -47247,7 +47260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>487</v>
       </c>
@@ -47342,7 +47355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>488</v>
       </c>
@@ -47437,7 +47450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>489</v>
       </c>
@@ -47532,7 +47545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>490</v>
       </c>
@@ -47627,7 +47640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>491</v>
       </c>
@@ -47722,7 +47735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>492</v>
       </c>
@@ -47817,7 +47830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>493</v>
       </c>
@@ -47912,7 +47925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>494</v>
       </c>
@@ -48007,7 +48020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>495</v>
       </c>
@@ -48102,7 +48115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>496</v>
       </c>
@@ -48197,7 +48210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>497</v>
       </c>
@@ -48292,7 +48305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>498</v>
       </c>
@@ -48387,7 +48400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>499</v>
       </c>
@@ -48482,7 +48495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>500</v>
       </c>
@@ -48577,7 +48590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>501</v>
       </c>
@@ -48672,7 +48685,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="503" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>502</v>
       </c>
@@ -48767,7 +48780,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="504" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>503</v>
       </c>
@@ -48862,7 +48875,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="505" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>504</v>
       </c>
@@ -48957,7 +48970,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="506" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>505</v>
       </c>
@@ -49052,7 +49065,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="507" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>506</v>
       </c>
@@ -49147,7 +49160,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="508" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>507</v>
       </c>
@@ -49242,7 +49255,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="509" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>508</v>
       </c>
@@ -49337,7 +49350,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="510" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>509</v>
       </c>
@@ -49432,7 +49445,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="511" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>510</v>
       </c>
@@ -49527,7 +49540,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="512" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>511</v>
       </c>
@@ -49622,7 +49635,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="513" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>512</v>
       </c>
@@ -49717,7 +49730,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="514" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>513</v>
       </c>
@@ -49812,7 +49825,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="515" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>514</v>
       </c>
@@ -49907,7 +49920,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="516" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>515</v>
       </c>
@@ -50002,7 +50015,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="517" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>516</v>
       </c>
@@ -50097,7 +50110,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="518" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>517</v>
       </c>
@@ -50192,7 +50205,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="519" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>518</v>
       </c>
@@ -50287,7 +50300,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="520" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>519</v>
       </c>
@@ -50382,7 +50395,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="521" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>520</v>
       </c>
@@ -50477,7 +50490,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="522" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>521</v>
       </c>
@@ -50572,7 +50585,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="523" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>522</v>
       </c>
@@ -50667,7 +50680,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="524" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>523</v>
       </c>
@@ -50762,7 +50775,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="525" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>524</v>
       </c>
@@ -50857,7 +50870,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="526" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>525</v>
       </c>
@@ -50952,7 +50965,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="527" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>526</v>
       </c>
@@ -51047,7 +51060,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="528" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>527</v>
       </c>
@@ -51142,7 +51155,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="529" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>528</v>
       </c>
@@ -51237,7 +51250,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="530" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>529</v>
       </c>
@@ -51332,7 +51345,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="531" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>530</v>
       </c>
@@ -51427,7 +51440,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="532" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>531</v>
       </c>
@@ -51522,7 +51535,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="533" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>532</v>
       </c>
@@ -51617,7 +51630,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="534" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>533</v>
       </c>
@@ -51712,7 +51725,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="535" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>534</v>
       </c>
@@ -51807,7 +51820,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="536" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>535</v>
       </c>
@@ -51902,7 +51915,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="537" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>536</v>
       </c>
@@ -51997,7 +52010,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="538" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>537</v>
       </c>
@@ -52092,7 +52105,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="539" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>538</v>
       </c>
@@ -52187,7 +52200,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="540" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>539</v>
       </c>
@@ -52282,7 +52295,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="541" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>540</v>
       </c>
@@ -52377,7 +52390,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="542" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>541</v>
       </c>
@@ -52472,7 +52485,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="543" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>542</v>
       </c>
@@ -52567,7 +52580,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="544" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>543</v>
       </c>
@@ -52662,7 +52675,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="545" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>544</v>
       </c>
@@ -52757,7 +52770,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="546" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>545</v>
       </c>
@@ -52852,7 +52865,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="547" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>546</v>
       </c>
@@ -52947,7 +52960,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="548" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>547</v>
       </c>
@@ -53042,7 +53055,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="549" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>548</v>
       </c>
@@ -53137,7 +53150,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="550" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>549</v>
       </c>
@@ -53232,7 +53245,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="551" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>550</v>
       </c>
@@ -53327,7 +53340,7 @@
         <v>1.0987654320987601</v>
       </c>
     </row>
-    <row r="552" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>551</v>
       </c>
@@ -53422,7 +53435,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="553" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>552</v>
       </c>
@@ -53517,7 +53530,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="554" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>553</v>
       </c>
@@ -53612,7 +53625,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="555" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>554</v>
       </c>
@@ -53707,7 +53720,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="556" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>555</v>
       </c>
@@ -53802,7 +53815,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="557" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>556</v>
       </c>
@@ -53897,7 +53910,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="558" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>557</v>
       </c>
@@ -53992,7 +54005,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="559" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>558</v>
       </c>
@@ -54087,7 +54100,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="560" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>559</v>
       </c>
@@ -54182,7 +54195,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="561" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>560</v>
       </c>
@@ -54277,7 +54290,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="562" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>561</v>
       </c>
@@ -54372,7 +54385,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="563" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>562</v>
       </c>
@@ -54467,7 +54480,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="564" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>563</v>
       </c>
@@ -54562,7 +54575,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="565" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>564</v>
       </c>
@@ -54657,7 +54670,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="566" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>565</v>
       </c>
@@ -54752,7 +54765,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="567" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>566</v>
       </c>
@@ -54847,7 +54860,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="568" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>567</v>
       </c>
@@ -54942,7 +54955,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="569" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>568</v>
       </c>
@@ -55037,7 +55050,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="570" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>569</v>
       </c>
@@ -55132,7 +55145,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="571" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>570</v>
       </c>
@@ -55227,7 +55240,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="572" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>571</v>
       </c>
@@ -55322,7 +55335,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="573" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>572</v>
       </c>
@@ -55417,7 +55430,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="574" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>573</v>
       </c>
@@ -55512,7 +55525,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="575" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>574</v>
       </c>
@@ -55607,7 +55620,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="576" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>575</v>
       </c>
@@ -55702,7 +55715,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="577" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>576</v>
       </c>
@@ -55797,7 +55810,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="578" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>577</v>
       </c>
@@ -55892,7 +55905,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="579" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>578</v>
       </c>
@@ -55987,7 +56000,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="580" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>579</v>
       </c>
@@ -56082,7 +56095,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="581" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>580</v>
       </c>
@@ -56177,7 +56190,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="582" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>581</v>
       </c>
@@ -56272,7 +56285,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="583" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>582</v>
       </c>
@@ -56367,7 +56380,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="584" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>583</v>
       </c>
@@ -56462,7 +56475,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="585" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>584</v>
       </c>
@@ -56557,7 +56570,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="586" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>585</v>
       </c>
@@ -56652,7 +56665,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="587" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>586</v>
       </c>
@@ -56747,7 +56760,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="588" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>587</v>
       </c>
@@ -56842,7 +56855,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="589" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>588</v>
       </c>
@@ -56937,7 +56950,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="590" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>589</v>
       </c>
@@ -57032,7 +57045,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="591" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>590</v>
       </c>
@@ -57127,7 +57140,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="592" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>591</v>
       </c>
@@ -57222,7 +57235,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="593" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>592</v>
       </c>
@@ -57317,7 +57330,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="594" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>593</v>
       </c>
@@ -57412,7 +57425,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="595" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>594</v>
       </c>
@@ -57507,7 +57520,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="596" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>595</v>
       </c>
@@ -57602,7 +57615,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="597" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>596</v>
       </c>
@@ -57697,7 +57710,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="598" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>597</v>
       </c>
@@ -57792,7 +57805,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="599" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>598</v>
       </c>
@@ -57887,7 +57900,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="600" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>599</v>
       </c>
@@ -57982,7 +57995,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="601" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>600</v>
       </c>
@@ -58077,7 +58090,7 @@
         <v>1.19753086419753</v>
       </c>
     </row>
-    <row r="602" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>601</v>
       </c>
@@ -58172,7 +58185,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="603" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>602</v>
       </c>
@@ -58267,7 +58280,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="604" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>603</v>
       </c>
@@ -58362,7 +58375,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="605" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>604</v>
       </c>
@@ -58457,7 +58470,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="606" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>605</v>
       </c>
@@ -58552,7 +58565,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="607" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>606</v>
       </c>
@@ -58647,7 +58660,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="608" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>607</v>
       </c>
@@ -58742,7 +58755,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="609" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>608</v>
       </c>
@@ -58837,7 +58850,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="610" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>609</v>
       </c>
@@ -58932,7 +58945,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="611" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>610</v>
       </c>
@@ -59027,7 +59040,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="612" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>611</v>
       </c>
@@ -59122,7 +59135,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="613" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>612</v>
       </c>
@@ -59217,7 +59230,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="614" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>613</v>
       </c>
@@ -59312,7 +59325,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="615" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>614</v>
       </c>
@@ -59407,7 +59420,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="616" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>615</v>
       </c>
@@ -59502,7 +59515,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="617" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>616</v>
       </c>
@@ -59597,7 +59610,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="618" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>617</v>
       </c>
@@ -59692,7 +59705,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="619" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>618</v>
       </c>
@@ -59787,7 +59800,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="620" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>619</v>
       </c>
@@ -59882,7 +59895,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="621" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>620</v>
       </c>
@@ -59977,7 +59990,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="622" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>621</v>
       </c>
@@ -60072,7 +60085,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="623" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>622</v>
       </c>
@@ -60167,7 +60180,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="624" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>623</v>
       </c>
@@ -60262,7 +60275,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="625" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>624</v>
       </c>
@@ -60357,7 +60370,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="626" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>625</v>
       </c>
@@ -60452,7 +60465,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="627" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>626</v>
       </c>
@@ -60547,7 +60560,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="628" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>627</v>
       </c>
@@ -60642,7 +60655,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="629" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>628</v>
       </c>
@@ -60737,7 +60750,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="630" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>629</v>
       </c>
@@ -60832,7 +60845,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="631" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>630</v>
       </c>
@@ -60927,7 +60940,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="632" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>631</v>
       </c>
@@ -61022,7 +61035,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="633" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>632</v>
       </c>
@@ -61117,7 +61130,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="634" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>633</v>
       </c>
@@ -61212,7 +61225,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="635" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>634</v>
       </c>
@@ -61307,7 +61320,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="636" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>635</v>
       </c>
@@ -61402,7 +61415,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="637" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>636</v>
       </c>
@@ -61497,7 +61510,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="638" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>637</v>
       </c>
@@ -61592,7 +61605,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="639" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>638</v>
       </c>
@@ -61687,7 +61700,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="640" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>639</v>
       </c>
@@ -61782,7 +61795,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="641" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>640</v>
       </c>
@@ -61877,7 +61890,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="642" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>641</v>
       </c>
@@ -61972,7 +61985,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="643" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>642</v>
       </c>
@@ -62067,7 +62080,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="644" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>643</v>
       </c>
@@ -62162,7 +62175,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="645" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>644</v>
       </c>
@@ -62257,7 +62270,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="646" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>645</v>
       </c>
@@ -62352,7 +62365,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="647" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>646</v>
       </c>
@@ -62447,7 +62460,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="648" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>647</v>
       </c>
@@ -62542,7 +62555,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="649" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>648</v>
       </c>
@@ -62637,7 +62650,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="650" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>649</v>
       </c>
@@ -62732,7 +62745,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="651" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>650</v>
       </c>
@@ -62827,7 +62840,7 @@
         <v>1.2962962962962901</v>
       </c>
     </row>
-    <row r="652" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>651</v>
       </c>
@@ -62922,7 +62935,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="653" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>652</v>
       </c>
@@ -63017,7 +63030,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="654" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>653</v>
       </c>
@@ -63112,7 +63125,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="655" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>654</v>
       </c>
@@ -63207,7 +63220,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="656" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>655</v>
       </c>
@@ -63302,7 +63315,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="657" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>656</v>
       </c>
@@ -63397,7 +63410,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="658" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>657</v>
       </c>
@@ -63492,7 +63505,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="659" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>658</v>
       </c>
@@ -63587,7 +63600,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="660" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>659</v>
       </c>
@@ -63682,7 +63695,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="661" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>660</v>
       </c>
@@ -63777,7 +63790,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="662" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>661</v>
       </c>
@@ -63872,7 +63885,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="663" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>662</v>
       </c>
@@ -63967,7 +63980,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="664" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>663</v>
       </c>
@@ -64062,7 +64075,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="665" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>664</v>
       </c>
@@ -64157,7 +64170,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="666" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>665</v>
       </c>
@@ -64252,7 +64265,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="667" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>666</v>
       </c>
@@ -64347,7 +64360,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="668" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>667</v>
       </c>
@@ -64442,7 +64455,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="669" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>668</v>
       </c>
@@ -64537,7 +64550,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="670" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>669</v>
       </c>
@@ -64632,7 +64645,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="671" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>670</v>
       </c>
@@ -64727,7 +64740,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="672" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>671</v>
       </c>
@@ -64822,7 +64835,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="673" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>672</v>
       </c>
@@ -64917,7 +64930,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="674" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>673</v>
       </c>
@@ -65012,7 +65025,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="675" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>674</v>
       </c>
@@ -65107,7 +65120,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="676" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>675</v>
       </c>
@@ -65202,7 +65215,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="677" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>676</v>
       </c>
@@ -65297,7 +65310,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="678" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>677</v>
       </c>
@@ -65392,7 +65405,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="679" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>678</v>
       </c>
@@ -65487,7 +65500,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="680" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>679</v>
       </c>
@@ -65582,7 +65595,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="681" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>680</v>
       </c>
@@ -65677,7 +65690,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="682" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>681</v>
       </c>
@@ -65772,7 +65785,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="683" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>682</v>
       </c>
@@ -65867,7 +65880,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="684" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>683</v>
       </c>
@@ -65962,7 +65975,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="685" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>684</v>
       </c>
@@ -66057,7 +66070,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="686" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>685</v>
       </c>
@@ -66152,7 +66165,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="687" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>686</v>
       </c>
@@ -66247,7 +66260,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="688" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>687</v>
       </c>
@@ -66342,7 +66355,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="689" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>688</v>
       </c>
@@ -66437,7 +66450,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="690" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>689</v>
       </c>
@@ -66532,7 +66545,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="691" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>690</v>
       </c>
@@ -66627,7 +66640,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="692" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>691</v>
       </c>
@@ -66722,7 +66735,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="693" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>692</v>
       </c>
@@ -66817,7 +66830,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="694" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>693</v>
       </c>
@@ -66912,7 +66925,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="695" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>694</v>
       </c>
@@ -67007,7 +67020,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="696" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>695</v>
       </c>
@@ -67102,7 +67115,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="697" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>696</v>
       </c>
@@ -67197,7 +67210,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="698" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>697</v>
       </c>
@@ -67292,7 +67305,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="699" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>698</v>
       </c>
@@ -67387,7 +67400,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="700" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>699</v>
       </c>
@@ -67482,7 +67495,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="701" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>700</v>
       </c>
@@ -67577,7 +67590,7 @@
         <v>1.3950617283950599</v>
       </c>
     </row>
-    <row r="702" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>701</v>
       </c>
@@ -67672,7 +67685,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="703" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>702</v>
       </c>
@@ -67767,7 +67780,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="704" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>703</v>
       </c>
@@ -67862,7 +67875,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="705" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>704</v>
       </c>
@@ -67957,7 +67970,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="706" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>705</v>
       </c>
@@ -68052,7 +68065,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="707" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>706</v>
       </c>
@@ -68147,7 +68160,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="708" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>707</v>
       </c>
@@ -68242,7 +68255,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="709" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>708</v>
       </c>
@@ -68337,7 +68350,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="710" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>709</v>
       </c>
@@ -68432,7 +68445,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="711" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>710</v>
       </c>
@@ -68527,7 +68540,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="712" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>711</v>
       </c>
@@ -68622,7 +68635,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="713" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>712</v>
       </c>
@@ -68717,7 +68730,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="714" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>713</v>
       </c>
@@ -68812,7 +68825,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="715" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>714</v>
       </c>
@@ -68907,7 +68920,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="716" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>715</v>
       </c>
@@ -69002,7 +69015,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="717" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>716</v>
       </c>
@@ -69097,7 +69110,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="718" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>717</v>
       </c>
@@ -69192,7 +69205,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="719" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>718</v>
       </c>
@@ -69287,7 +69300,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="720" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>719</v>
       </c>
@@ -69382,7 +69395,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="721" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>720</v>
       </c>
@@ -69477,7 +69490,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="722" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>721</v>
       </c>
@@ -69572,7 +69585,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="723" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>722</v>
       </c>
@@ -69667,7 +69680,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="724" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>723</v>
       </c>
@@ -69762,7 +69775,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="725" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>724</v>
       </c>
@@ -69857,7 +69870,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="726" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>725</v>
       </c>
@@ -69952,7 +69965,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="727" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>726</v>
       </c>
@@ -70047,7 +70060,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="728" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>727</v>
       </c>
@@ -70142,7 +70155,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="729" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>728</v>
       </c>
@@ -70237,7 +70250,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="730" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>729</v>
       </c>
@@ -70332,7 +70345,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="731" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>730</v>
       </c>
@@ -70427,7 +70440,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="732" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>731</v>
       </c>
@@ -70522,7 +70535,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="733" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>732</v>
       </c>
@@ -70617,7 +70630,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="734" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>733</v>
       </c>
@@ -70712,7 +70725,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="735" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>734</v>
       </c>
@@ -70807,7 +70820,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="736" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>735</v>
       </c>
@@ -70902,7 +70915,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="737" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>736</v>
       </c>
@@ -70997,7 +71010,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="738" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>737</v>
       </c>
@@ -71092,7 +71105,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="739" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>738</v>
       </c>
@@ -71187,7 +71200,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="740" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>739</v>
       </c>
@@ -71282,7 +71295,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="741" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>740</v>
       </c>
@@ -71377,7 +71390,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="742" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>741</v>
       </c>
@@ -71472,7 +71485,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="743" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>742</v>
       </c>
@@ -71567,7 +71580,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="744" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>743</v>
       </c>
@@ -71662,7 +71675,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="745" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>744</v>
       </c>
@@ -71757,7 +71770,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="746" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>745</v>
       </c>
@@ -71852,7 +71865,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="747" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>746</v>
       </c>
@@ -71947,7 +71960,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="748" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>747</v>
       </c>
@@ -72042,7 +72055,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="749" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>748</v>
       </c>
@@ -72137,7 +72150,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="750" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>749</v>
       </c>
@@ -72232,7 +72245,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="751" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>750</v>
       </c>
@@ -72327,7 +72340,7 @@
         <v>1.50617283950617</v>
       </c>
     </row>
-    <row r="752" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>751</v>
       </c>
@@ -72422,7 +72435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>752</v>
       </c>
@@ -72517,7 +72530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>753</v>
       </c>
@@ -72612,7 +72625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>754</v>
       </c>
@@ -72707,7 +72720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="756" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>755</v>
       </c>
@@ -72802,7 +72815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="757" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>756</v>
       </c>
@@ -72897,7 +72910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="758" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>757</v>
       </c>
@@ -72992,7 +73005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="759" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>758</v>
       </c>
@@ -73087,7 +73100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>759</v>
       </c>
@@ -73182,7 +73195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>760</v>
       </c>
@@ -73277,7 +73290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>761</v>
       </c>
@@ -73372,7 +73385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="763" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>762</v>
       </c>
@@ -73467,7 +73480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>763</v>
       </c>
@@ -73562,7 +73575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>764</v>
       </c>
@@ -73657,7 +73670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>765</v>
       </c>
@@ -73752,7 +73765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>766</v>
       </c>
@@ -73847,7 +73860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="768" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>767</v>
       </c>
@@ -73942,7 +73955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="769" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>768</v>
       </c>
@@ -74037,7 +74050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>769</v>
       </c>
@@ -74132,7 +74145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>770</v>
       </c>
@@ -74227,7 +74240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>771</v>
       </c>
@@ -74322,7 +74335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="773" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>772</v>
       </c>
@@ -74417,7 +74430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="774" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>773</v>
       </c>
@@ -74512,7 +74525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>774</v>
       </c>
@@ -74607,7 +74620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>775</v>
       </c>
@@ -74702,7 +74715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="777" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>776</v>
       </c>
@@ -74797,7 +74810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="778" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>777</v>
       </c>
@@ -74892,7 +74905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>778</v>
       </c>
@@ -74987,7 +75000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="780" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>779</v>
       </c>
@@ -75082,7 +75095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="781" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>780</v>
       </c>
@@ -75177,7 +75190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="782" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>781</v>
       </c>
@@ -75272,7 +75285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="783" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>782</v>
       </c>
@@ -75367,7 +75380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>783</v>
       </c>
@@ -75462,7 +75475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="785" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>784</v>
       </c>
@@ -75557,7 +75570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="786" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>785</v>
       </c>
@@ -75652,7 +75665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="787" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>786</v>
       </c>
@@ -75747,7 +75760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="788" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>787</v>
       </c>
@@ -75842,7 +75855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="789" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>788</v>
       </c>
@@ -75937,7 +75950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="790" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>789</v>
       </c>
@@ -76032,7 +76045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="791" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>790</v>
       </c>
@@ -76127,7 +76140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>791</v>
       </c>
@@ -76222,7 +76235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="793" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>792</v>
       </c>
@@ -76317,7 +76330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="794" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>793</v>
       </c>
@@ -76412,7 +76425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="795" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>794</v>
       </c>
@@ -76507,7 +76520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="796" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>795</v>
       </c>
@@ -76602,7 +76615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="797" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>796</v>
       </c>
@@ -76697,7 +76710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="798" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>797</v>
       </c>
@@ -76792,7 +76805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="799" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>798</v>
       </c>
@@ -76887,7 +76900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="800" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>799</v>
       </c>
@@ -76982,7 +76995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="801" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>800</v>
       </c>
@@ -77077,7 +77090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="802" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>801</v>
       </c>
@@ -77172,7 +77185,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="803" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>802</v>
       </c>
@@ -77267,7 +77280,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="804" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>803</v>
       </c>
@@ -77362,7 +77375,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="805" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>804</v>
       </c>
@@ -77457,7 +77470,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="806" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>805</v>
       </c>
@@ -77552,7 +77565,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="807" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>806</v>
       </c>
@@ -77647,7 +77660,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="808" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>807</v>
       </c>
@@ -77742,7 +77755,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="809" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>808</v>
       </c>
@@ -77837,7 +77850,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="810" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>809</v>
       </c>
@@ -77932,7 +77945,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="811" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>810</v>
       </c>
@@ -78027,7 +78040,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="812" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>811</v>
       </c>
@@ -78122,7 +78135,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="813" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>812</v>
       </c>
@@ -78217,7 +78230,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="814" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>813</v>
       </c>
@@ -78312,7 +78325,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="815" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>814</v>
       </c>
@@ -78407,7 +78420,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="816" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>815</v>
       </c>
@@ -78502,7 +78515,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="817" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>816</v>
       </c>
@@ -78597,7 +78610,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="818" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>817</v>
       </c>
@@ -78692,7 +78705,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="819" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>818</v>
       </c>
@@ -78787,7 +78800,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="820" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>819</v>
       </c>
@@ -78882,7 +78895,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="821" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>820</v>
       </c>
@@ -78977,7 +78990,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="822" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>821</v>
       </c>
@@ -79072,7 +79085,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="823" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>822</v>
       </c>
@@ -79167,7 +79180,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="824" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>823</v>
       </c>
@@ -79262,7 +79275,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="825" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>824</v>
       </c>
@@ -79357,7 +79370,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="826" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>825</v>
       </c>
@@ -79452,7 +79465,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="827" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>826</v>
       </c>
@@ -79547,7 +79560,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="828" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>827</v>
       </c>
@@ -79642,7 +79655,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="829" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>828</v>
       </c>
@@ -79737,7 +79750,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="830" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>829</v>
       </c>
@@ -79832,7 +79845,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="831" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>830</v>
       </c>
@@ -79927,7 +79940,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="832" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>831</v>
       </c>
@@ -80022,7 +80035,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="833" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>832</v>
       </c>
@@ -80117,7 +80130,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="834" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>833</v>
       </c>
@@ -80212,7 +80225,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="835" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>834</v>
       </c>
@@ -80307,7 +80320,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="836" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>835</v>
       </c>
@@ -80402,7 +80415,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="837" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>836</v>
       </c>
@@ -80497,7 +80510,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="838" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>837</v>
       </c>
@@ -80592,7 +80605,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="839" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>838</v>
       </c>
@@ -80687,7 +80700,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="840" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>839</v>
       </c>
@@ -80782,7 +80795,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="841" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>840</v>
       </c>
@@ -80877,7 +80890,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="842" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>841</v>
       </c>
@@ -80972,7 +80985,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="843" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>842</v>
       </c>
@@ -81067,7 +81080,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="844" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>843</v>
       </c>
@@ -81162,7 +81175,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="845" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>844</v>
       </c>
@@ -81257,7 +81270,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="846" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>845</v>
       </c>
@@ -81352,7 +81365,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="847" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>846</v>
       </c>
@@ -81447,7 +81460,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="848" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>847</v>
       </c>
@@ -81542,7 +81555,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="849" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>848</v>
       </c>
@@ -81637,7 +81650,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="850" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>849</v>
       </c>
@@ -81732,7 +81745,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="851" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>850</v>
       </c>
@@ -81827,7 +81840,7 @@
         <v>2.5061728395061702</v>
       </c>
     </row>
-    <row r="852" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>851</v>
       </c>
@@ -81922,7 +81935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="853" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>852</v>
       </c>
@@ -82017,7 +82030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="854" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>853</v>
       </c>
@@ -82112,7 +82125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="855" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>854</v>
       </c>
@@ -82207,7 +82220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="856" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>855</v>
       </c>
@@ -82302,7 +82315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="857" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>856</v>
       </c>
@@ -82397,7 +82410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="858" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>857</v>
       </c>
@@ -82492,7 +82505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="859" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>858</v>
       </c>
@@ -82587,7 +82600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="860" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>859</v>
       </c>
@@ -82682,7 +82695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="861" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>860</v>
       </c>
@@ -82777,7 +82790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="862" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>861</v>
       </c>
@@ -82872,7 +82885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="863" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>862</v>
       </c>
@@ -82967,7 +82980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="864" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>863</v>
       </c>
@@ -83062,7 +83075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="865" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>864</v>
       </c>
@@ -83157,7 +83170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="866" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>865</v>
       </c>
@@ -83252,7 +83265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="867" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>866</v>
       </c>
@@ -83347,7 +83360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="868" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>867</v>
       </c>
@@ -83442,7 +83455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="869" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>868</v>
       </c>
@@ -83537,7 +83550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="870" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>869</v>
       </c>
@@ -83632,7 +83645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="871" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>870</v>
       </c>
@@ -83727,7 +83740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="872" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>871</v>
       </c>
@@ -83822,7 +83835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="873" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>872</v>
       </c>
@@ -83917,7 +83930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="874" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>873</v>
       </c>
@@ -84012,7 +84025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="875" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>874</v>
       </c>
@@ -84107,7 +84120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="876" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>875</v>
       </c>
@@ -84202,7 +84215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="877" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>876</v>
       </c>
@@ -84297,7 +84310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="878" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>877</v>
       </c>
@@ -84392,7 +84405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="879" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>878</v>
       </c>
@@ -84487,7 +84500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="880" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>879</v>
       </c>
@@ -84582,7 +84595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="881" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>880</v>
       </c>
@@ -84677,7 +84690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="882" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>881</v>
       </c>
@@ -84772,7 +84785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="883" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>882</v>
       </c>
@@ -84867,7 +84880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="884" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>883</v>
       </c>
@@ -84962,7 +84975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="885" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>884</v>
       </c>
@@ -85057,7 +85070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="886" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>885</v>
       </c>
@@ -85152,7 +85165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="887" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>886</v>
       </c>
@@ -85247,7 +85260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="888" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>887</v>
       </c>
@@ -85342,7 +85355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="889" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>888</v>
       </c>
@@ -85437,7 +85450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="890" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>889</v>
       </c>
@@ -85532,7 +85545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="891" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>890</v>
       </c>
@@ -85627,7 +85640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="892" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>891</v>
       </c>
@@ -85722,7 +85735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="893" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>892</v>
       </c>
@@ -85817,7 +85830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="894" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>893</v>
       </c>
@@ -85912,7 +85925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="895" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>894</v>
       </c>
@@ -86007,7 +86020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="896" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>895</v>
       </c>
@@ -86102,7 +86115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="897" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>896</v>
       </c>
@@ -86197,7 +86210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="898" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>897</v>
       </c>
@@ -86292,7 +86305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="899" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>898</v>
       </c>
@@ -86387,7 +86400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="900" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>899</v>
       </c>
@@ -86482,7 +86495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="901" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>900</v>
       </c>
@@ -86577,7 +86590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="902" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>901</v>
       </c>
@@ -86672,7 +86685,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="903" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>902</v>
       </c>
@@ -86767,7 +86780,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="904" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>903</v>
       </c>
@@ -86862,7 +86875,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="905" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>904</v>
       </c>
@@ -86957,7 +86970,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="906" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>905</v>
       </c>
@@ -87052,7 +87065,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="907" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>906</v>
       </c>
@@ -87147,7 +87160,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="908" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>907</v>
       </c>
@@ -87242,7 +87255,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="909" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>908</v>
       </c>
@@ -87337,7 +87350,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="910" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>909</v>
       </c>
@@ -87432,7 +87445,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="911" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>910</v>
       </c>
@@ -87527,7 +87540,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="912" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>911</v>
       </c>
@@ -87622,7 +87635,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="913" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>912</v>
       </c>
@@ -87717,7 +87730,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="914" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>913</v>
       </c>
@@ -87812,7 +87825,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="915" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>914</v>
       </c>
@@ -87907,7 +87920,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="916" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>915</v>
       </c>
@@ -88002,7 +88015,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="917" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>916</v>
       </c>
@@ -88097,7 +88110,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="918" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>917</v>
       </c>
@@ -88192,7 +88205,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="919" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>918</v>
       </c>
@@ -88287,7 +88300,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="920" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>919</v>
       </c>
@@ -88382,7 +88395,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="921" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>920</v>
       </c>
@@ -88477,7 +88490,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="922" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>921</v>
       </c>
@@ -88572,7 +88585,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="923" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>922</v>
       </c>
@@ -88667,7 +88680,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="924" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>923</v>
       </c>
@@ -88762,7 +88775,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="925" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>924</v>
       </c>
@@ -88857,7 +88870,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="926" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>925</v>
       </c>
@@ -88952,7 +88965,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="927" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>926</v>
       </c>
@@ -89047,7 +89060,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="928" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>927</v>
       </c>
@@ -89142,7 +89155,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="929" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>928</v>
       </c>
@@ -89237,7 +89250,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="930" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>929</v>
       </c>
@@ -89332,7 +89345,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="931" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>930</v>
       </c>
@@ -89427,7 +89440,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="932" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>931</v>
       </c>
@@ -89522,7 +89535,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="933" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>932</v>
       </c>
@@ -89617,7 +89630,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="934" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>933</v>
       </c>
@@ -89712,7 +89725,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="935" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>934</v>
       </c>
@@ -89807,7 +89820,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="936" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>935</v>
       </c>
@@ -89902,7 +89915,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="937" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>936</v>
       </c>
@@ -89997,7 +90010,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="938" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>937</v>
       </c>
@@ -90092,7 +90105,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="939" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>938</v>
       </c>
@@ -90187,7 +90200,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="940" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>939</v>
       </c>
@@ -90282,7 +90295,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="941" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>940</v>
       </c>
@@ -90377,7 +90390,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="942" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>941</v>
       </c>
@@ -90472,7 +90485,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="943" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>942</v>
       </c>
@@ -90567,7 +90580,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="944" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>943</v>
       </c>
@@ -90662,7 +90675,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="945" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>944</v>
       </c>
@@ -90757,7 +90770,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="946" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>945</v>
       </c>
@@ -90852,7 +90865,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="947" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>946</v>
       </c>
@@ -90947,7 +90960,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="948" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>947</v>
       </c>
@@ -91042,7 +91055,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="949" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>948</v>
       </c>
@@ -91137,7 +91150,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="950" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>949</v>
       </c>
@@ -91232,7 +91245,7 @@
         <v>3.5061728395061702</v>
       </c>
     </row>
-    <row r="951" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>950</v>
       </c>
@@ -91328,10 +91341,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE951">
-    <filterColumn colId="23">
+  <autoFilter ref="A1:AE951" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="30">
       <filters>
-        <filter val="284"/>
+        <filter val="3.50617284"/>
       </filters>
     </filterColumn>
   </autoFilter>
